--- a/data/Panama_pyramid_2019.xlsx
+++ b/data/Panama_pyramid_2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nmlemus/covid19/covid19-panama/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{DED57450-B4C2-E240-9BBB-D3AA8D0A4E5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{83A3ADFE-8420-AD4A-9CD4-55AD2DF245D8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="42">
   <si>
     <t>Age</t>
   </si>
@@ -130,6 +130,33 @@
   </si>
   <si>
     <t>% casos por edades</t>
+  </si>
+  <si>
+    <t>Grupos de Edades</t>
+  </si>
+  <si>
+    <t>Defunciones</t>
+  </si>
+  <si>
+    <t>CFR Global</t>
+  </si>
+  <si>
+    <t>&lt; 20 años</t>
+  </si>
+  <si>
+    <t>20-39 años</t>
+  </si>
+  <si>
+    <t>40-59 años</t>
+  </si>
+  <si>
+    <t>60-79 años</t>
+  </si>
+  <si>
+    <t>&gt; 80 años</t>
+  </si>
+  <si>
+    <t>% muertes por Grupos</t>
   </si>
 </sst>
 </file>
@@ -709,13 +736,16 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -742,6 +772,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -764,6 +797,12 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -1121,50 +1160,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:O36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:H13"/>
+      <selection activeCell="O32" sqref="O32:O34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.33203125" customWidth="1"/>
     <col min="11" max="11" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="13" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1182,7 +1225,7 @@
         <f>SUM(B2:C5)</f>
         <v>1491818</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="22">
         <f>D2/D24</f>
         <v>0.35131027401776549</v>
       </c>
@@ -1192,19 +1235,19 @@
       <c r="G2" s="2">
         <v>27</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="14">
         <f>G2/G24</f>
         <v>6.7130780706116363E-3</v>
       </c>
-      <c r="I2" s="14">
+      <c r="I2" s="16">
         <f>G2/F2</f>
         <v>6.4449908099205116E-4</v>
       </c>
-      <c r="J2" s="18">
+      <c r="J2" s="20">
         <f>D2*I2</f>
         <v>961.47533000739975</v>
       </c>
-      <c r="K2" s="13">
+      <c r="K2" s="14">
         <f>F2/F24</f>
         <v>0.16975161068114591</v>
       </c>
@@ -1220,13 +1263,13 @@
         <v>186839</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="21"/>
+      <c r="E3" s="23"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="13"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="14"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
@@ -1239,13 +1282,13 @@
         <v>179256</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="21"/>
+      <c r="E4" s="23"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="13"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="14"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
@@ -1258,13 +1301,13 @@
         <v>174294</v>
       </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="22"/>
+      <c r="E5" s="24"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="13"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="14"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
@@ -1276,11 +1319,11 @@
       <c r="C6" s="1">
         <v>170385</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="5">
         <f>SUM(B6:C9)</f>
         <v>1280979</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="22">
         <f>D6/D24</f>
         <v>0.30165950772882699</v>
       </c>
@@ -1290,19 +1333,19 @@
       <c r="G6" s="2">
         <v>186</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="14">
         <f>G6/G24</f>
         <v>4.6245648930880158E-2</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="16">
         <f>G6/F6</f>
         <v>1.876873089070746E-3</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="20">
         <f>D6*I6</f>
         <v>2404.2350127647551</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="14">
         <f>F6/F24</f>
         <v>0.40156003079541308</v>
       </c>
@@ -1317,14 +1360,14 @@
       <c r="C7" s="1">
         <v>161294</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="21"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="23"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="13"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -1336,14 +1379,14 @@
       <c r="C8" s="1">
         <v>155735</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="21"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="23"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="13"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="14"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
@@ -1355,14 +1398,14 @@
       <c r="C9" s="1">
         <v>148032</v>
       </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="22"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="24"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="13"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="14"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
@@ -1374,11 +1417,11 @@
       <c r="C10" s="1">
         <v>142026</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="5">
         <f>SUM(B10:C13)</f>
         <v>967156</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="22">
         <f>D10/D24</f>
         <v>0.22775689754241199</v>
       </c>
@@ -1388,19 +1431,19 @@
       <c r="G10" s="2">
         <v>794</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="14">
         <f>G10/G24</f>
         <v>0.19741422178020884</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="16">
         <f>G10/F10</f>
         <v>1.0968971900643771E-2</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J10" s="20">
         <f>D10*I10</f>
         <v>10608.706987539026</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="14">
         <f>F10/F24</f>
         <v>0.29331010170590383</v>
       </c>
@@ -1415,14 +1458,14 @@
       <c r="C11" s="1">
         <v>131595</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="21"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="23"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="13"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="14"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
@@ -1434,14 +1477,14 @@
       <c r="C12" s="1">
         <v>114993</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="21"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="23"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="13"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="14"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -1453,14 +1496,14 @@
       <c r="C13" s="1">
         <v>97482</v>
       </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="22"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="24"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="13"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="14"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
@@ -1472,11 +1515,11 @@
       <c r="C14" s="1">
         <v>78865</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="5">
         <f>SUM(B14:C17)</f>
         <v>422595</v>
       </c>
-      <c r="E14" s="20">
+      <c r="E14" s="22">
         <f>D14/D24</f>
         <v>9.9517478169949422E-2</v>
       </c>
@@ -1486,19 +1529,19 @@
       <c r="G14" s="2">
         <v>1970</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="14">
         <f>G14/G24</f>
         <v>0.48980606663351567</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="16">
         <f>G14/F14</f>
         <v>7.0445199356338278E-2</v>
       </c>
-      <c r="J14" s="18">
+      <c r="J14" s="20">
         <f>D14*I14</f>
         <v>29769.789021991775</v>
       </c>
-      <c r="K14" s="13">
+      <c r="K14" s="14">
         <f>F14/F24</f>
         <v>0.11331496413955185</v>
       </c>
@@ -1513,14 +1556,14 @@
       <c r="C15" s="1">
         <v>61362</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="21"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="23"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="13"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="14"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
@@ -1532,16 +1575,16 @@
       <c r="C16" s="1">
         <v>46446</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="21"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="23"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="13"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H16" s="14"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="14"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
@@ -1551,16 +1594,16 @@
       <c r="C17" s="1">
         <v>34181</v>
       </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="22"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="24"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="13"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H17" s="14"/>
+      <c r="I17" s="18"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="14"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
@@ -1570,11 +1613,11 @@
       <c r="C18" s="1">
         <v>23240</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="5">
         <f>SUM(B18:C22)</f>
         <v>83892</v>
       </c>
-      <c r="E18" s="20">
+      <c r="E18" s="22">
         <f>D18/D24</f>
         <v>1.9755842541046148E-2</v>
       </c>
@@ -1584,24 +1627,24 @@
       <c r="G18" s="2">
         <v>1045</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="14">
         <f>G18/G24</f>
         <v>0.2598209845847837</v>
       </c>
-      <c r="I18" s="14">
+      <c r="I18" s="16">
         <f>G18/F18</f>
         <v>0.19191919191919191</v>
       </c>
-      <c r="J18" s="18">
+      <c r="J18" s="20">
         <f>D18*I18</f>
         <v>16100.484848484848</v>
       </c>
-      <c r="K18" s="13">
+      <c r="K18" s="14">
         <f>F18/F24</f>
         <v>2.2063292677985333E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -1611,16 +1654,16 @@
       <c r="C19" s="1">
         <v>13866</v>
       </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="21"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="23"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="13"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H19" s="14"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="14"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
@@ -1630,16 +1673,16 @@
       <c r="C20" s="1">
         <v>6801</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="21"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="23"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="13"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H20" s="14"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="14"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,16 +1692,16 @@
       <c r="C21" s="1">
         <v>2559</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="21"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="23"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="13"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="H21" s="14"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="20"/>
+      <c r="K21" s="14"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
@@ -1668,50 +1711,252 @@
       <c r="C22" s="1">
         <v>582</v>
       </c>
-      <c r="D22" s="6"/>
-      <c r="E22" s="22"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="24"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="13"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
+      <c r="H22" s="14"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="14"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8">
         <f>SUM(D18,D14,D10,D6,D2)</f>
         <v>4246440</v>
       </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7">
+      <c r="E24" s="8"/>
+      <c r="F24" s="8">
         <f>SUM(F18,F14,F10,F6,F2)</f>
         <v>246790</v>
       </c>
-      <c r="G24" s="7">
+      <c r="G24" s="8">
         <f>SUM(G18,G14,G10,G6,G2)</f>
         <v>4022</v>
       </c>
-      <c r="H24" s="17">
+      <c r="H24" s="19">
         <f>G24/F24</f>
         <v>1.6297256777016898E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="8">
+      <c r="B27" s="11"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="9">
         <f>D24*0.017</f>
         <v>72189.48000000001</v>
       </c>
-      <c r="E27" s="19"/>
+      <c r="E27" s="21"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="M31" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="N31" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="O31" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32" s="4">
+        <v>27</v>
+      </c>
+      <c r="C32" s="25">
+        <f>B32/G24</f>
+        <v>6.7130780706116363E-3</v>
+      </c>
+      <c r="D32" s="15">
+        <f>B32/F24</f>
+        <v>1.09404757080919E-4</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H32" s="4">
+        <v>41893</v>
+      </c>
+      <c r="I32" s="26">
+        <v>0.17</v>
+      </c>
+      <c r="M32" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N32" s="4">
+        <v>1491818</v>
+      </c>
+      <c r="O32" s="26">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="4">
+        <v>186</v>
+      </c>
+      <c r="C33" s="25">
+        <f>B33/G24</f>
+        <v>4.6245648930880158E-2</v>
+      </c>
+      <c r="D33" s="15">
+        <f>B33/F24</f>
+        <v>7.5367721544633093E-4</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H33" s="4">
+        <v>99101</v>
+      </c>
+      <c r="I33" s="26">
+        <v>0.4</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N33" s="4">
+        <v>1280979</v>
+      </c>
+      <c r="O33" s="26">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="4">
+        <v>794</v>
+      </c>
+      <c r="C34" s="25">
+        <f>B34/G24</f>
+        <v>0.19741422178020884</v>
+      </c>
+      <c r="D34" s="15">
+        <f>B34/F24</f>
+        <v>3.2173102637870253E-3</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H34" s="4">
+        <v>72386</v>
+      </c>
+      <c r="I34" s="26">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M34" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="N34" s="4">
+        <v>967156</v>
+      </c>
+      <c r="O34" s="26">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" s="4">
+        <v>1970</v>
+      </c>
+      <c r="C35" s="25">
+        <f>B35/G24</f>
+        <v>0.48980606663351567</v>
+      </c>
+      <c r="D35" s="15">
+        <f>B35/F24</f>
+        <v>7.9824952388670538E-3</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H35" s="4">
+        <v>27965</v>
+      </c>
+      <c r="I35" s="26">
+        <v>0.11</v>
+      </c>
+      <c r="M35" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N35" s="4">
+        <v>422595</v>
+      </c>
+      <c r="O35" s="26">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36" s="4">
+        <v>1045</v>
+      </c>
+      <c r="C36" s="25">
+        <f>B36/G24</f>
+        <v>0.2598209845847837</v>
+      </c>
+      <c r="D36" s="15">
+        <f>B36/F24</f>
+        <v>4.2343693018355687E-3</v>
+      </c>
+      <c r="G36" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="H36" s="4">
+        <v>5445</v>
+      </c>
+      <c r="I36" s="26">
+        <v>0.02</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N36" s="4">
+        <v>83892</v>
+      </c>
+      <c r="O36" s="26">
+        <v>0.02</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="41">
